--- a/projects/nitrious_engine/Engineering Hand Calculations/GasLighter Engine V1.xlsx
+++ b/projects/nitrious_engine/Engineering Hand Calculations/GasLighter Engine V1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="118">
   <si>
     <t>INPUT FROM CEA INFO (Based on propellants and MR)</t>
   </si>
@@ -164,6 +164,9 @@
     <t>Displacement (in)</t>
   </si>
   <si>
+    <t xml:space="preserve">Load Preload </t>
+  </si>
+  <si>
     <t>Allowable Seating Stress - Graphite</t>
   </si>
   <si>
@@ -185,7 +188,7 @@
     <t xml:space="preserve">Bolt E (psi) </t>
   </si>
   <si>
-    <t xml:space="preserve">Total Bolt Load Expansion </t>
+    <t xml:space="preserve">Total Bolt Load Heat Expansion </t>
   </si>
   <si>
     <t xml:space="preserve">D Bolt </t>
@@ -1290,7 +1293,7 @@
     <col customWidth="1" min="6" max="6" width="19.88"/>
     <col customWidth="1" min="8" max="8" width="18.88"/>
     <col customWidth="1" min="10" max="10" width="15.25"/>
-    <col customWidth="1" min="11" max="11" width="16.75"/>
+    <col customWidth="1" min="11" max="11" width="28.5"/>
     <col customWidth="1" min="13" max="13" width="16.13"/>
   </cols>
   <sheetData>
@@ -1332,7 +1335,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="29">
-        <v>400.0</v>
+        <v>370.0</v>
       </c>
       <c r="K2" s="30" t="s">
         <v>35</v>
@@ -1428,9 +1431,15 @@
       </c>
       <c r="G6" s="38">
         <f>G3*G4*(G2-74)</f>
-        <v>0.025428</v>
-      </c>
-      <c r="K6" s="34"/>
+        <v>0.023088</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="12">
+        <f>B14</f>
+        <v>10107.09262</v>
+      </c>
       <c r="N6" s="11" t="s">
         <v>36</v>
       </c>
@@ -1440,21 +1449,21 @@
     </row>
     <row r="7">
       <c r="A7" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="26">
         <v>24200.0</v>
       </c>
       <c r="D7" s="32"/>
       <c r="K7" s="30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L7" s="12">
         <f>B14/L5</f>
         <v>3431.666667</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O7" s="31">
         <v>58000.0</v>
@@ -1462,14 +1471,14 @@
     </row>
     <row r="8">
       <c r="A8" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="26">
         <v>8.0</v>
       </c>
       <c r="D8" s="32"/>
       <c r="F8" s="39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -1479,49 +1488,49 @@
     </row>
     <row r="9">
       <c r="A9" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="26">
         <v>0.2</v>
       </c>
       <c r="D9" s="32"/>
       <c r="F9" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="11">
         <v>3.0E7</v>
       </c>
       <c r="I9" s="32"/>
       <c r="K9" s="30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L9" s="12">
         <f>B8*G15</f>
-        <v>29956.65675</v>
+        <v>27199.90919</v>
       </c>
       <c r="O9" s="32"/>
     </row>
     <row r="10">
       <c r="A10" s="40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="41">
         <v>0.25</v>
       </c>
       <c r="D10" s="32"/>
       <c r="F10" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" s="11">
         <v>10.0</v>
       </c>
       <c r="I10" s="32"/>
       <c r="K10" s="30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L10" s="12">
         <f>L9/L5</f>
-        <v>10171.2</v>
+        <v>9235.2</v>
       </c>
       <c r="O10" s="32"/>
     </row>
@@ -1543,7 +1552,7 @@
       </c>
       <c r="D12" s="32"/>
       <c r="F12" s="30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" s="12">
         <f>PI()/4*B10^2</f>
@@ -1551,17 +1560,17 @@
       </c>
       <c r="I12" s="32"/>
       <c r="K12" s="30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L12" s="12">
         <f>L10+L7</f>
-        <v>13602.86667</v>
+        <v>12666.86667</v>
       </c>
       <c r="O12" s="32"/>
     </row>
     <row r="13">
       <c r="A13" s="42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" s="43">
         <f>PI()/4*((B12+2*B2)^2-(B12)^2)</f>
@@ -1569,25 +1578,25 @@
       </c>
       <c r="D13" s="32"/>
       <c r="F13" s="30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G13" s="12">
         <f>G6/G10</f>
-        <v>0.0025428</v>
+        <v>0.0023088</v>
       </c>
       <c r="I13" s="32"/>
       <c r="K13" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L13" s="12">
         <f>O2/L12</f>
-        <v>2.940556647</v>
+        <v>3.157844876</v>
       </c>
       <c r="O13" s="32"/>
     </row>
     <row r="14">
       <c r="A14" s="42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" s="43">
         <f>PI()*B2*B3*B4</f>
@@ -1597,11 +1606,11 @@
       <c r="F14" s="34"/>
       <c r="I14" s="32"/>
       <c r="K14" s="44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L14" s="45">
         <f>O3/L12</f>
-        <v>3.308126228</v>
+        <v>3.552575486</v>
       </c>
       <c r="M14" s="45"/>
       <c r="N14" s="45"/>
@@ -1609,7 +1618,7 @@
     </row>
     <row r="15">
       <c r="A15" s="42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" s="43">
         <f>(PI()/4)*B3^2*B6+2*B2*PI()*B3*B5*B6</f>
@@ -1617,11 +1626,11 @@
       </c>
       <c r="D15" s="32"/>
       <c r="F15" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G15" s="12">
         <f>G13*G12*G9</f>
-        <v>3744.582094</v>
+        <v>3399.988649</v>
       </c>
       <c r="I15" s="32"/>
     </row>
@@ -1630,17 +1639,17 @@
       <c r="B16" s="43"/>
       <c r="D16" s="32"/>
       <c r="F16" s="48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G16" s="49">
         <f>(G15+B17)/G12</f>
-        <v>102021.5</v>
+        <v>95001.5</v>
       </c>
       <c r="I16" s="32"/>
     </row>
     <row r="17">
       <c r="A17" s="42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B17" s="43">
         <f>B14/B8</f>
@@ -1652,7 +1661,7 @@
     </row>
     <row r="18">
       <c r="A18" s="42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" s="43">
         <f>PI()/4*B10^2</f>
@@ -1664,7 +1673,7 @@
     </row>
     <row r="19">
       <c r="A19" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19" s="12">
         <f>I21/(B17/B18)</f>
@@ -1682,27 +1691,27 @@
     </row>
     <row r="21">
       <c r="A21" s="50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B21" s="51">
         <f>B9*B17*B10</f>
         <v>63.16932885</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" s="53">
         <f>B21/12</f>
         <v>5.264110737</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G21" s="11">
         <v>150000.0</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I21" s="31">
         <v>130000.0</v>
@@ -1713,18 +1722,18 @@
       <c r="B22" s="51"/>
       <c r="D22" s="32"/>
       <c r="F22" s="48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G22" s="15">
         <f>G21/G16</f>
-        <v>1.470278324</v>
+        <v>1.578922438</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I22" s="54">
         <f>I21/G16</f>
-        <v>1.274241214</v>
+        <v>1.368399446</v>
       </c>
     </row>
     <row r="23">
@@ -1763,24 +1772,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="11">
         <v>2.35</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" s="11">
-        <v>1.5</v>
+        <v>2.0</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>36</v>
@@ -1796,12 +1805,12 @@
       </c>
       <c r="J2" s="12">
         <f t="shared" ref="J2:J3" si="1">H2/G8</f>
-        <v>124666.6667</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" s="11">
         <v>0.28</v>
@@ -1820,90 +1829,90 @@
       </c>
       <c r="J3" s="12">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="11" t="str">
-        <f>'Tie Rod Force'!B13</f>
-        <v>#REF!</v>
+        <v>85</v>
+      </c>
+      <c r="B4" s="11">
+        <f>('Tie Rod Force'!B14+'Tie Rod Force'!G15*'Tie Rod Force'!B8)</f>
+        <v>37307.00181</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" s="11">
-        <f>H2/G8</f>
-        <v>124666.6667</v>
+        <f>J3</f>
+        <v>160000</v>
       </c>
     </row>
     <row r="7">
       <c r="F7" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="12" t="str">
+        <v>88</v>
+      </c>
+      <c r="B8" s="12">
         <f>B4/(PI()*2*B1)</f>
-        <v>#REF!</v>
+        <v>2526.635638</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G8" s="11">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9" s="12">
         <f>(B2/B1)*(((1+B3)/2)*LN(B1/B2)+(1-B3)/4*(1-(B2/B1)^2))</f>
-        <v>0.251484121</v>
+        <v>0.1300730884</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="11">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B10" s="12">
         <f>0.5*(1-B3^2)*(B1/B2-B2/B1)</f>
-        <v>0.4277923404</v>
+        <v>0.1492697872</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="12" t="str">
+        <v>93</v>
+      </c>
+      <c r="B12" s="12">
         <f>B8*(B1^3)/(B2^2)*(1-B3^2)*B9/B10</f>
-        <v>#REF!</v>
+        <v>6583.308657</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="12" t="str">
+        <v>94</v>
+      </c>
+      <c r="B14" s="12">
         <f>SQRT(6*B12/B5)</f>
-        <v>#REF!</v>
+        <v>0.4968642416</v>
       </c>
     </row>
   </sheetData>
@@ -1927,25 +1936,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="57" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="57" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
@@ -1955,15 +1964,15 @@
       <c r="D2" s="58"/>
       <c r="E2" s="58"/>
       <c r="H2" s="59" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C3" s="57">
         <v>3.5</v>
@@ -1983,10 +1992,10 @@
     </row>
     <row r="4">
       <c r="A4" s="57" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" s="57">
         <v>3.44</v>
@@ -2008,10 +2017,10 @@
     </row>
     <row r="6">
       <c r="A6" s="57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="57">
         <v>3.5</v>
@@ -2030,10 +2039,10 @@
     </row>
     <row r="7">
       <c r="A7" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="57" t="s">
         <v>106</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>105</v>
       </c>
       <c r="C7" s="57">
         <v>3.44</v>
@@ -2127,14 +2136,14 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="11">
         <f>8.5/2</f>
         <v>4.25</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E1" s="11">
         <v>5.0</v>
@@ -2142,14 +2151,14 @@
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" s="11">
         <f>3.5/2</f>
         <v>1.75</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E2" s="12">
         <f>E1*1920</f>
@@ -2158,7 +2167,7 @@
     </row>
     <row r="3">
       <c r="A3" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" s="11">
         <v>0.31</v>
@@ -2166,7 +2175,7 @@
     </row>
     <row r="4">
       <c r="A4" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" s="11">
         <v>45.0</v>
@@ -2174,7 +2183,7 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" s="11">
         <v>20000.0</v>
@@ -2182,7 +2191,7 @@
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6" s="11">
         <v>1.75</v>
@@ -2190,7 +2199,7 @@
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B7" s="11">
         <v>1.0E7</v>
@@ -2198,18 +2207,18 @@
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B8" s="11">
         <v>0.07</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B11" s="12">
         <f>B4/(PI()*2*B6)</f>
@@ -2218,7 +2227,7 @@
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B12" s="12">
         <f>B6/B1*((1+B3)/2*LN(B1/B6)+(1-B3)/4*(1-(B6/B1)^2))</f>
@@ -2227,7 +2236,7 @@
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B13" s="12">
         <f>0.5*(1-B3^2)*(B1/B2-B2/B1)</f>
@@ -2236,7 +2245,7 @@
     </row>
     <row r="14">
       <c r="A14" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B14" s="12">
         <f>B7*B8^3/(12*(1-B3^2))</f>
@@ -2245,7 +2254,7 @@
     </row>
     <row r="16">
       <c r="A16" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B16" s="12">
         <f>B11*B1^2*B12/(B14*B13)</f>
@@ -2254,7 +2263,7 @@
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B17" s="12">
         <f>B16*B14*(1-B3^2)/B2</f>
@@ -2263,7 +2272,7 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B18" s="12">
         <f>6*B17/B8^2</f>
